--- a/cypress/fixtures/LMS/users_Student_23-05-2023 10_25_49.xlsx
+++ b/cypress/fixtures/LMS/users_Student_23-05-2023 10_25_49.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Cypress_Backup_Framework\E-sense_Cypress_Automation\cypress\fixtures\LMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -616,7 +616,7 @@
         <v>30</v>
       </c>
       <c r="W2">
-        <v>123</v>
+        <v>2023</v>
       </c>
       <c r="X2">
         <v>321</v>
